--- a/XlsxTemplateTests/data/transform.xlsx
+++ b/XlsxTemplateTests/data/transform.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanglb\work\template-go\TemplateGOTests\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanglb\work\xlsx-template\XlsxTemplateTests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1B6523-4F7A-4CA7-90A1-72FD1E333639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615328F3-4705-461A-9B54-9777C9EE5C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12975" yWindow="465" windowWidth="18300" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1298" yWindow="1335" windowWidth="20565" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据转换" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
-    <t>TemplateGO 测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,6 +173,10 @@
   </si>
   <si>
     <t>链式转换（后面为 name3 不存在）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XlsxTemplate 测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -258,14 +258,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -897,210 +896,203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="4" width="32.75" customWidth="1"/>
-    <col min="5" max="5" width="29.75" customWidth="1"/>
+    <col min="1" max="1" width="5.3984375" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+    <col min="3" max="4" width="32.73046875" customWidth="1"/>
+    <col min="5" max="5" width="29.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.6">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A10" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <f>ROW()-2</f>
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
